--- a/docs/mcode/oncocore-CancerStageGroup.xlsx
+++ b/docs/mcode/oncocore-CancerStageGroup.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$59</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="345">
   <si>
     <t>Path</t>
   </si>
@@ -204,19 +204,98 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.meta.extension</t>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://tools.ietf.org/html/bcp47</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
   </si>
   <si>
     <t>extensions
@@ -230,190 +309,10 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Observation.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Observation.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Observation.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://tools.ietf.org/html/bcp47</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -507,6 +406,9 @@
     <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Observation.code.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>Codes for high level observation categories .</t>
   </si>
   <si>
@@ -529,6 +431,9 @@
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
@@ -630,6 +535,10 @@
   </si>
   <si>
     <t>Observation.issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
   </si>
   <si>
     <t>Date/Time this was made available</t>
@@ -693,6 +602,9 @@
     <t>An observation exists to have a value, though it may not if it is in error, or it represents a group of observations.</t>
   </si>
   <si>
+    <t>Observation.value[x]</t>
+  </si>
+  <si>
     <t>OBX.2, OBX.5, OBX.6</t>
   </si>
   <si>
@@ -792,7 +704,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>OBX-20</t>
@@ -801,54 +713,6 @@
     <t>targetSiteCode</t>
   </si>
   <si>
-    <t>Observation.bodySite.id</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.extension</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labelled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
     <t>Observation.method</t>
   </si>
   <si>
@@ -864,7 +728,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/oncocore/vs/CancerStagingSystemVS</t>
+    <t>http://hl7.org/fhir/us/mcode/oncocore/vs/CancerStagingSystemVS</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -949,7 +813,19 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Observation.referenceRange.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1363,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM70"/>
+  <dimension ref="A1:AM59"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1395,8 +1271,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.15625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="47.11328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.3515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -1857,21 +1733,23 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -1934,7 +1812,7 @@
         <v>42</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>42</v>
@@ -1942,18 +1820,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -2000,13 +1878,13 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>42</v>
@@ -2038,7 +1916,7 @@
         <v>42</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>42</v>
@@ -2046,11 +1924,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2066,19 +1944,19 @@
         <v>42</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2133,7 +2011,7 @@
       </c>
       <c r="AG7" s="2"/>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
@@ -2142,7 +2020,7 @@
         <v>42</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>42</v>
@@ -2150,18 +2028,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -2170,19 +2048,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2246,7 +2124,7 @@
         <v>42</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>42</v>
@@ -2254,11 +2132,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2274,19 +2152,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2324,16 +2202,14 @@
         <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
@@ -2350,7 +2226,7 @@
         <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>42</v>
@@ -2358,9 +2234,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2369,7 +2247,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>42</v>
@@ -2378,20 +2256,16 @@
         <v>42</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>42</v>
@@ -2416,13 +2290,13 @@
         <v>42</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>42</v>
@@ -2439,11 +2313,15 @@
       <c r="AD10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2462,11 +2340,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2479,22 +2357,22 @@
         <v>42</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2520,10 +2398,10 @@
         <v>42</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="s" s="2">
         <v>42</v>
@@ -2558,7 +2436,7 @@
         <v>42</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>42</v>
@@ -2566,7 +2444,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2577,30 +2455,30 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2659,18 +2537,18 @@
         <v>42</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>42</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2678,7 +2556,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>51</v>
@@ -2687,24 +2565,24 @@
         <v>42</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>42</v>
       </c>
@@ -2728,13 +2606,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -2763,22 +2641,22 @@
         <v>42</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>42</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2797,16 +2675,16 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2832,13 +2710,13 @@
         <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>42</v>
@@ -2861,7 +2739,7 @@
       </c>
       <c r="AG14" s="2"/>
       <c r="AH14" t="s" s="2">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>42</v>
@@ -2870,26 +2748,26 @@
         <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>42</v>
@@ -2898,21 +2776,21 @@
         <v>42</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>42</v>
       </c>
@@ -2936,13 +2814,13 @@
         <v>42</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>42</v>
@@ -2971,29 +2849,29 @@
         <v>42</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>42</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>42</v>
@@ -3002,21 +2880,23 @@
         <v>42</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>42</v>
       </c>
@@ -3052,20 +2932,26 @@
         <v>42</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AE16" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG16" s="2"/>
+      <c r="AG16" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH16" t="s" s="2">
         <v>42</v>
       </c>
@@ -3073,22 +2959,20 @@
         <v>42</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3109,14 +2993,18 @@
         <v>42</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3163,15 +3051,11 @@
       <c r="AD17" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE17" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="AE17" s="2"/>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG17" s="2"/>
       <c r="AH17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3179,52 +3063,54 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>42</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I18" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3283,18 +3169,18 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>42</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3305,7 +3191,7 @@
         <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
@@ -3314,21 +3200,21 @@
         <v>42</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3387,18 +3273,18 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>142</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3406,32 +3292,32 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>42</v>
@@ -3456,13 +3342,13 @@
         <v>42</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>42</v>
@@ -3491,18 +3377,18 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>151</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3510,7 +3396,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>51</v>
@@ -3522,21 +3408,23 @@
         <v>42</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3560,13 +3448,13 @@
         <v>42</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>42</v>
@@ -3583,11 +3471,15 @@
       <c r="AD21" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE21" s="2"/>
+      <c r="AE21" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG21" s="2"/>
+      <c r="AG21" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3595,18 +3487,18 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>160</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3614,7 +3506,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>51</v>
@@ -3626,20 +3518,22 @@
         <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="N22" t="s" s="2">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>42</v>
@@ -3664,13 +3558,11 @@
         <v>42</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>42</v>
@@ -3693,32 +3585,32 @@
       </c>
       <c r="AG22" s="2"/>
       <c r="AH22" t="s" s="2">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>169</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>51</v>
@@ -3730,22 +3622,20 @@
         <v>42</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3770,13 +3660,13 @@
         <v>42</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>42</v>
@@ -3793,15 +3683,11 @@
       <c r="AD23" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE23" t="s" s="2">
-        <v>170</v>
-      </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG23" s="2"/>
       <c r="AH23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3809,18 +3695,18 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>178</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3843,17 +3729,17 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -3913,18 +3799,18 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>186</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3935,7 +3821,7 @@
         <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>42</v>
@@ -3944,22 +3830,22 @@
         <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -3984,13 +3870,11 @@
         <v>42</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>42</v>
@@ -4007,11 +3891,15 @@
       <c r="AD25" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE25" s="2"/>
+      <c r="AE25" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG25" s="2"/>
+      <c r="AG25" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4019,18 +3907,18 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>195</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4050,21 +3938,23 @@
         <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4088,13 +3978,11 @@
         <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>42</v>
@@ -4123,18 +4011,18 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>202</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4145,7 +4033,7 @@
         <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>42</v>
@@ -4154,21 +4042,21 @@
         <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4215,11 +4103,15 @@
       <c r="AD27" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE27" s="2"/>
+      <c r="AE27" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG27" s="2"/>
+      <c r="AG27" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4227,18 +4119,18 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>210</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4249,7 +4141,7 @@
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4258,23 +4150,21 @@
         <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>153</v>
+        <v>238</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>42</v>
       </c>
@@ -4321,11 +4211,15 @@
       <c r="AD28" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE28" s="2"/>
+      <c r="AE28" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG28" s="2"/>
+      <c r="AG28" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH28" t="s" s="2">
         <v>42</v>
       </c>
@@ -4333,10 +4227,10 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>42</v>
@@ -4344,7 +4238,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4355,7 +4249,7 @@
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
@@ -4367,19 +4261,19 @@
         <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>153</v>
+        <v>245</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4404,11 +4298,13 @@
         <v>42</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X29" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>42</v>
@@ -4425,22 +4321,26 @@
       <c r="AD29" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE29" s="2"/>
+      <c r="AE29" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG29" s="2"/>
+      <c r="AG29" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH29" t="s" s="2">
-        <v>224</v>
+        <v>42</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>42</v>
@@ -4448,11 +4348,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>227</v>
+        <v>42</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4471,18 +4371,16 @@
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>230</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4506,13 +4404,13 @@
         <v>42</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>42</v>
@@ -4541,10 +4439,10 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
@@ -4552,18 +4450,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>42</v>
@@ -4575,18 +4473,18 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>92</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4645,10 +4543,10 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>42</v>
@@ -4656,43 +4554,41 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>243</v>
+        <v>101</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4716,11 +4612,13 @@
         <v>42</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="X32" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y32" t="s" s="2">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>42</v>
@@ -4737,15 +4635,11 @@
       <c r="AD32" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE32" t="s" s="2">
-        <v>242</v>
-      </c>
+      <c r="AE32" s="2"/>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG32" s="2"/>
       <c r="AH32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4753,10 +4647,10 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>250</v>
+        <v>88</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>42</v>
@@ -4764,7 +4658,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4787,13 +4681,13 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>53</v>
+        <v>263</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>62</v>
+        <v>264</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>63</v>
+        <v>265</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4849,16 +4743,16 @@
       </c>
       <c r="AG33" s="2"/>
       <c r="AH33" t="s" s="2">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>64</v>
+        <v>268</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -4866,18 +4760,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
@@ -4889,17 +4783,15 @@
         <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>68</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -4953,16 +4845,16 @@
       </c>
       <c r="AG34" s="2"/>
       <c r="AH34" t="s" s="2">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>64</v>
+        <v>272</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -4970,7 +4862,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4981,7 +4873,7 @@
         <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
@@ -4990,22 +4882,22 @@
         <v>42</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5030,13 +4922,13 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
@@ -5065,10 +4957,10 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -5076,7 +4968,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5096,22 +4988,20 @@
         <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5171,10 +5061,10 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>42</v>
@@ -5182,7 +5072,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5205,20 +5095,16 @@
         <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5242,11 +5128,13 @@
         <v>42</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>272</v>
+        <v>42</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5275,10 +5163,10 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>42</v>
@@ -5286,7 +5174,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5297,7 +5185,7 @@
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
@@ -5306,21 +5194,23 @@
         <v>42</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5368,13 +5258,13 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>42</v>
@@ -5383,10 +5273,10 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
@@ -5394,7 +5284,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5405,7 +5295,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5417,17 +5307,15 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>283</v>
+        <v>53</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5475,15 +5363,11 @@
       <c r="AD39" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE39" t="s" s="2">
-        <v>282</v>
-      </c>
+      <c r="AE39" s="2"/>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG39" s="2"/>
       <c r="AH39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5491,10 +5375,10 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -5502,18 +5386,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
@@ -5525,20 +5409,18 @@
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>290</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>291</v>
+        <v>92</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5585,26 +5467,22 @@
       <c r="AD40" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE40" t="s" s="2">
-        <v>289</v>
-      </c>
+      <c r="AE40" s="2"/>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG40" s="2"/>
       <c r="AH40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>295</v>
+        <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>296</v>
+        <v>42</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5612,38 +5490,40 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5706,7 +5586,7 @@
         <v>42</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>
@@ -5714,18 +5594,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
@@ -5740,21 +5620,23 @@
         <v>67</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>68</v>
+        <v>302</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>69</v>
+        <v>303</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>42</v>
@@ -5772,13 +5654,13 @@
         <v>42</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>42</v>
+        <v>307</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>42</v>
+        <v>308</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>42</v>
@@ -5807,10 +5689,10 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>64</v>
+        <v>309</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
@@ -5818,40 +5700,38 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>301</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>67</v>
+        <v>311</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>134</v>
+        <v>312</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -5914,7 +5794,7 @@
         <v>42</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>125</v>
+        <v>314</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
@@ -5922,7 +5802,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5933,7 +5813,7 @@
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
@@ -5942,19 +5822,23 @@
         <v>42</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6001,22 +5885,26 @@
       <c r="AD44" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE44" s="2"/>
+      <c r="AE44" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG44" s="2"/>
+      <c r="AG44" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH44" t="s" s="2">
-        <v>307</v>
+        <v>42</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -6024,7 +5912,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6047,13 +5935,13 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>304</v>
+        <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6109,16 +5997,16 @@
       </c>
       <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
-        <v>307</v>
+        <v>42</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>42</v>
@@ -6126,18 +6014,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6149,20 +6037,18 @@
         <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>315</v>
+        <v>92</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>316</v>
+        <v>258</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>42</v>
       </c>
@@ -6186,13 +6072,13 @@
         <v>42</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>42</v>
@@ -6221,10 +6107,10 @@
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6232,41 +6118,41 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>323</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>324</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
       </c>
@@ -6328,7 +6214,7 @@
         <v>42</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>327</v>
+        <v>88</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6336,7 +6222,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6344,7 +6230,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>51</v>
@@ -6356,19 +6242,21 @@
         <v>42</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>236</v>
+        <v>120</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
       </c>
@@ -6392,13 +6280,13 @@
         <v>42</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>42</v>
@@ -6421,24 +6309,24 @@
       </c>
       <c r="AG48" s="2"/>
       <c r="AH48" t="s" s="2">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>308</v>
+        <v>136</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>331</v>
+        <v>137</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>42</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6461,19 +6349,19 @@
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>334</v>
+        <v>183</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>336</v>
+        <v>185</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -6521,15 +6409,11 @@
       <c r="AD49" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE49" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="AE49" s="2"/>
       <c r="AF49" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG49" s="2"/>
       <c r="AH49" t="s" s="2">
         <v>42</v>
       </c>
@@ -6537,10 +6421,10 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>337</v>
+        <v>187</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>338</v>
+        <v>188</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6548,7 +6432,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6571,16 +6455,20 @@
         <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>62</v>
+        <v>333</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
       </c>
@@ -6604,13 +6492,11 @@
         <v>42</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="X50" s="2"/>
       <c r="Y50" t="s" s="2">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>42</v>
@@ -6633,16 +6519,16 @@
       </c>
       <c r="AG50" s="2"/>
       <c r="AH50" t="s" s="2">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6650,11 +6536,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6673,18 +6559,20 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>67</v>
+        <v>245</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>68</v>
+        <v>336</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>69</v>
+        <v>247</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
       </c>
@@ -6743,10 +6631,10 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>64</v>
+        <v>252</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -6754,40 +6642,38 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>301</v>
+        <v>42</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -6850,7 +6736,7 @@
         <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>125</v>
+        <v>256</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -6858,18 +6744,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>42</v>
@@ -6881,26 +6767,24 @@
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>343</v>
+        <v>92</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>344</v>
+        <v>258</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>347</v>
+        <v>42</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>42</v>
@@ -6918,13 +6802,13 @@
         <v>42</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>42</v>
@@ -6953,10 +6837,10 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -6964,38 +6848,40 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>352</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>353</v>
+        <v>101</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -7058,7 +6944,7 @@
         <v>42</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>355</v>
+        <v>88</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
@@ -7066,7 +6952,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7077,7 +6963,7 @@
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
@@ -7086,23 +6972,19 @@
         <v>42</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>357</v>
+        <v>264</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>42</v>
       </c>
@@ -7149,26 +7031,22 @@
       <c r="AD55" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE55" t="s" s="2">
-        <v>356</v>
-      </c>
+      <c r="AE55" s="2"/>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG55" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG55" s="2"/>
       <c r="AH55" t="s" s="2">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>360</v>
+        <v>267</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>361</v>
+        <v>268</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7176,7 +7054,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7199,13 +7077,13 @@
         <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>53</v>
+        <v>263</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>62</v>
+        <v>270</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>63</v>
+        <v>271</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7261,16 +7139,16 @@
       </c>
       <c r="AG56" s="2"/>
       <c r="AH56" t="s" s="2">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>64</v>
+        <v>272</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
@@ -7278,18 +7156,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
@@ -7301,18 +7179,20 @@
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>68</v>
+        <v>274</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>69</v>
+        <v>275</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
       </c>
@@ -7336,13 +7216,13 @@
         <v>42</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>42</v>
@@ -7371,10 +7251,10 @@
         <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7382,41 +7262,41 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>301</v>
+        <v>42</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>67</v>
+        <v>282</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>134</v>
+        <v>283</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
       </c>
@@ -7478,7 +7358,7 @@
         <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>125</v>
+        <v>286</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7486,7 +7366,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7494,7 +7374,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>51</v>
@@ -7506,21 +7386,19 @@
         <v>42</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>366</v>
+        <v>288</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>164</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>42</v>
       </c>
@@ -7544,13 +7422,13 @@
         <v>42</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
@@ -7573,1165 +7451,23 @@
       </c>
       <c r="AG59" s="2"/>
       <c r="AH59" t="s" s="2">
-        <v>368</v>
+        <v>42</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>167</v>
+        <v>267</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>168</v>
+        <v>290</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE60" s="2"/>
-      <c r="AF60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG60" s="2"/>
-      <c r="AH60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X61" s="2"/>
-      <c r="Y61" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE61" s="2"/>
-      <c r="AF61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG61" s="2"/>
-      <c r="AH61" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE62" s="2"/>
-      <c r="AF62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG62" s="2"/>
-      <c r="AH62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE63" s="2"/>
-      <c r="AF63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG63" s="2"/>
-      <c r="AH63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE64" s="2"/>
-      <c r="AF64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG64" s="2"/>
-      <c r="AH64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE65" s="2"/>
-      <c r="AF65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG65" s="2"/>
-      <c r="AH65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE66" s="2"/>
-      <c r="AF66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG66" s="2"/>
-      <c r="AH66" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE67" s="2"/>
-      <c r="AF67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG67" s="2"/>
-      <c r="AH67" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE68" s="2"/>
-      <c r="AF68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG68" s="2"/>
-      <c r="AH68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE69" s="2"/>
-      <c r="AF69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG69" s="2"/>
-      <c r="AH69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE70" s="2"/>
-      <c r="AF70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG70" s="2"/>
-      <c r="AH70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AL70" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL70">
+  <autoFilter ref="A1:AL59">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8741,7 +7477,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI69">
+  <conditionalFormatting sqref="A2:AI58">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
